--- a/src/test/resources/ch/sbb/rssched/client/config/request_config.xlsx
+++ b/src/test/resources/ch/sbb/rssched/client/config/request_config.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\code\github\rssched\rssched-matsim-client\src\test\resources\ch\sbb\rssched\client\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C863A4-F5E9-4D8C-BF34-FAF6E3F87F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31662AD-D659-4A8B-B00E-8C283CBBD2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
+    <workbookView xWindow="12710" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_info" sheetId="4" r:id="rId1"/>
     <sheet name="vehicle_types" sheetId="5" r:id="rId2"/>
-    <sheet name="shunting_locations_on_route" sheetId="2" r:id="rId3"/>
-    <sheet name="depot_locations" sheetId="1" r:id="rId4"/>
-    <sheet name="maintenance_slots" sheetId="3" r:id="rId5"/>
+    <sheet name="transit_lines" sheetId="6" r:id="rId3"/>
+    <sheet name="shunting_locations_on_route" sheetId="2" r:id="rId4"/>
+    <sheet name="depot_locations" sheetId="1" r:id="rId5"/>
+    <sheet name="maintenance_slots" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$25</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
   <si>
     <t>location_id</t>
   </si>
@@ -322,6 +323,15 @@
   </si>
   <si>
     <t>The coordinate reference system of the network</t>
+  </si>
+  <si>
+    <t>transit_line_id</t>
+  </si>
+  <si>
+    <t>vehicle_type</t>
+  </si>
+  <si>
+    <t>Note: This sheet is optional; if list is empty, no filter is applied.</t>
   </si>
 </sst>
 </file>
@@ -723,21 +733,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.4609375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.4609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.4609375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.4609375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -754,7 +764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -769,7 +779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -783,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -797,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -811,7 +821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -825,7 +835,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -842,7 +852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -860,7 +870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -874,7 +884,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -891,7 +901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -908,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -926,7 +936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -943,7 +953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -957,7 +967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -974,7 +984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1008,7 +1018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1026,7 +1036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1096,7 +1106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1163,18 +1173,18 @@
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1268,6 +1278,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80F383-C696-4474-8FD7-AD5AB2C7C97C}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455315F6-EE05-465E-98C9-4563FB409249}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1276,32 +1315,32 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1311,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319C589F-C9B8-4390-8C65-9522706FCF68}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -1320,14 +1359,14 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1352,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1363,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1374,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1385,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1396,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1407,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1418,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1434,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01B7B07-7F3C-4799-BD75-429B5670A61E}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1443,14 +1482,14 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1478,7 +1517,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>

--- a/src/test/resources/ch/sbb/rssched/client/config/request_config.xlsx
+++ b/src/test/resources/ch/sbb/rssched/client/config/request_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\code\github\rssched\rssched-matsim-client\src\test\resources\ch\sbb\rssched\client\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31662AD-D659-4A8B-B00E-8C283CBBD2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFFEF35-9DE6-4588-95F4-DF46BAFB14E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="2" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_info" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="maintenance_slots" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>location_id</t>
   </si>
@@ -314,15 +314,6 @@
   </si>
   <si>
     <t>rss001</t>
-  </si>
-  <si>
-    <t>networkCrs</t>
-  </si>
-  <si>
-    <t>EPSG:25832</t>
-  </si>
-  <si>
-    <t>The coordinate reference system of the network</t>
   </si>
   <si>
     <t>transit_line_id</t>
@@ -731,23 +722,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.4609375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.4609375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.4609375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -764,7 +755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -779,7 +770,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -793,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -807,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -821,344 +812,330 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
-        <v>0.1</v>
+        <f>90 / 3.6</f>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7">
-        <f>90 / 3.6</f>
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="b">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <f>15 * 60</f>
+        <v>900</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C12" s="7">
-        <f>15 * 60</f>
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7">
-        <v>999</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="b">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <f>2 * 60</f>
+        <v>120</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7">
-        <f>2 * 60</f>
-        <v>120</v>
+        <f>3 * 60</f>
+        <v>180</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7">
-        <f>3 * 60</f>
-        <v>180</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="7">
         <f>15000 * 1000</f>
         <v>15000000</v>
       </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="7">
+        <v>100</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C24" s="7">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="7">
-        <v>200</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
+  <autoFilter ref="A1:E24" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1173,18 +1150,18 @@
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -1204,7 +1181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1221,7 +1198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1238,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1255,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1281,24 +1258,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D80F383-C696-4474-8FD7-AD5AB2C7C97C}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1315,32 +1292,32 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -1359,14 +1336,14 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="7.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1391,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1402,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1413,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1424,7 +1401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -1435,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1446,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1457,7 +1434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1482,14 +1459,14 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1517,7 +1494,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>

--- a/src/test/resources/ch/sbb/rssched/client/config/request_config.xlsx
+++ b/src/test/resources/ch/sbb/rssched/client/config/request_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devsbb\code\github\rssched\rssched-matsim-client\src\test\resources\ch\sbb\rssched\client\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFFEF35-9DE6-4588-95F4-DF46BAFB14E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7F5BF4-1EF1-486F-ADD9-547F7152629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DC1F9231-C487-4AC9-83CB-859BC56E9E26}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_info" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="maintenance_slots" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scenario_info!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
   <si>
     <t>location_id</t>
   </si>
@@ -323,6 +323,21 @@
   </si>
   <si>
     <t>Note: This sheet is optional; if list is empty, no filter is applied.</t>
+  </si>
+  <si>
+    <t>Deadhead trips are routed using network links that match one of these allowed modes (list sperated with colon: pt,rail)</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>deadHeadTripAllowedModes</t>
+  </si>
+  <si>
+    <t>capacityFactor</t>
+  </si>
+  <si>
+    <t>Adjust the passenger capacity of units to reflect deviations in passenger demand.</t>
   </si>
 </sst>
 </file>
@@ -722,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -834,17 +849,13 @@
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7">
-        <f>90 / 3.6</f>
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -852,13 +863,17 @@
         <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <f>90 / 3.6</f>
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -866,16 +881,13 @@
         <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -883,16 +895,16 @@
         <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -900,48 +912,48 @@
         <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="7">
         <f>15 * 60</f>
         <v>900</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7">
-        <v>999</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -949,50 +961,47 @@
         <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="b">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="7">
+        <v>999</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1000,17 +1009,16 @@
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7">
-        <f>2 * 60</f>
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,69 +1026,70 @@
         <v>44</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="7">
+        <f>2 * 60</f>
+        <v>120</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="7">
         <f>3 * 60</f>
         <v>180</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C21" s="7">
         <f>15000 * 1000</f>
         <v>15000000</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7">
-        <v>100</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="7">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1088,16 +1097,16 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1105,16 +1114,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,20 +1131,54 @@
         <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="7">
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7">
+        <v>200</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E24" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
+  <autoFilter ref="A1:E26" xr:uid="{59229E94-6018-4A97-A06C-07B4D53DFD39}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
